--- a/cp-identifier/ig/all-profiles.xlsx
+++ b/cp-identifier/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T14:12:46+00:00</t>
+    <t>2025-07-15T14:53:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-identifier/ig/all-profiles.xlsx
+++ b/cp-identifier/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T14:53:59+00:00</t>
+    <t>2025-07-16T07:55:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2000,7 +2000,7 @@
     <t>Allows identification of the research study as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:use}
+    <t xml:space="preserve">value:value}
 </t>
   </si>
   <si>
@@ -29697,7 +29697,7 @@
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>83</v>
@@ -31068,7 +31068,7 @@
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>83</v>

--- a/cp-identifier/ig/all-profiles.xlsx
+++ b/cp-identifier/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T07:55:12+00:00</t>
+    <t>2025-07-16T09:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2000,8 +2000,8 @@
     <t>Allows identification of the research study as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:value}
-</t>
+    <t>value:use}
+value:value}</t>
   </si>
   <si>
     <t>Slicing pour les différents identifiants de l'essai clinique</t>
@@ -29697,7 +29697,7 @@
       </c>
       <c r="F228" s="2"/>
       <c r="G228" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>83</v>
@@ -31068,7 +31068,7 @@
       </c>
       <c r="F241" s="2"/>
       <c r="G241" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>83</v>

--- a/cp-identifier/ig/all-profiles.xlsx
+++ b/cp-identifier/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T09:38:26+00:00</t>
+    <t>2025-07-23T16:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2001,7 +2001,7 @@
   </si>
   <si>
     <t>value:use}
-value:value}</t>
+value:system}</t>
   </si>
   <si>
     <t>Slicing pour les différents identifiants de l'essai clinique</t>

--- a/cp-identifier/ig/all-profiles.xlsx
+++ b/cp-identifier/ig/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T16:41:09+00:00</t>
+    <t>2025-07-23T16:56:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
